--- a/task/Tasks.xlsx
+++ b/task/Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="MultiNodes" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Disk Scaling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Replace a Node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +119,82 @@
   </si>
   <si>
     <t>http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which Disk Fails?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSD Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://docs.ceph.com/docs/jewel/rados/operations/crush-map/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crush Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The UseCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evelyn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring (DaemonSet - Prometheus Server)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus Node Exporter - DaemonSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kubernetes.io/docs/concepts/workloads/controllers/daemonset/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disk Scaling/PV Scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebooting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add a Node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,11 +342,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -284,15 +366,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -596,15 +683,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="34.875" customWidth="1"/>
+    <col min="1" max="3" width="34.875" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -622,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,181 +730,313 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="1" t="s">
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A3:A7"/>
+  <mergeCells count="10">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+    <hyperlink ref="F10" r:id="rId3"/>
+    <hyperlink ref="F13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/task/Tasks.xlsx
+++ b/task/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>Add a Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove a Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replica works?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -365,12 +377,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -686,7 +692,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D22" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -872,13 +878,13 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -890,9 +896,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
@@ -900,9 +906,9 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
@@ -910,10 +916,16 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
@@ -953,10 +965,10 @@
       <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -967,8 +979,8 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="1" t="s">
         <v>42</v>
       </c>
@@ -976,10 +988,10 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -990,8 +1002,8 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>

--- a/task/Tasks.xlsx
+++ b/task/Tasks.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="MultiNodes" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="Consoulting" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,183 +30,309 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Jim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory/CPU Scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI Packages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory/PV limitation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace a Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The same as copy??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avail Size= Size/Replicas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4T)4OSDs (2T)2Replicas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which Disk Fails?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSD Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://docs.ceph.com/docs/jewel/rados/operations/crush-map/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The UseCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evelyn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus Node Exporter - DaemonSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kubernetes.io/docs/concepts/workloads/controllers/daemonset/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebooting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove a Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replica works?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Kubernetes 1+N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Catalog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disk Scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add NAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/ https://ceph.com/geen-categorie/admin-guide-replacing-a-failed-disk-in-a-ceph-cluster/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ceph.com/geen-categorie/difference-between-ceph-osd-reweight-and-ceph-osd-crush-reweight/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Replicas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA Architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFS with Ceph??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ceph osd tree - check down osd / host name
+2.1 ceph-volume lvm list - check osd mapping to /dev/sdx
+2.2 ceph-deploy osd list &lt;hostname&gt;- check osd mapping to /dev/sdx
+3. locate the disk with /dev/sdx to replace it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Crush Map (root-2 hosts-4 osds)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. apt insatll ceph-deploy
+3. ceph-crush-location???</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disk Scaling/PV Scaling - Add OSD ((4T)4OSDs (2T)2Replicas)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes Resources (will monitor the added Node?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus Node Exporter - DaemonSet (will monitor the added Node?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes Reources Rebalancing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceph OSD Rebalancing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebalance Resources?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebalance Resources(PG)?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ceph osd tree
+2. ceph pg dump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Keep the default weights (CRUSH reweight) with disk size
+2. The disk with larger space or better performance with larger (CRUSH rewight)
+3. Use CRUSH reweight instead, don't use OSD reweight(temporary solution,  When an OSD
+gets marked out, the osd weight will be set to 0. When it gets marked in
+again, the weight will be changed to 1..)
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Same disk with same weight</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Jim</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Memory/CPU Scaling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ceph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI Packages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HA Architecture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memory/PV limitation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFS / NFS with Ceph??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add Node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replace a Node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The same as copy??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Replicas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avail Size= Size/Replicas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4T)4OSDs (2T)2Replicas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add Node/ Add OSD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Which Disk Fails?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSD Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://docs.ceph.com/docs/jewel/rados/operations/crush-map/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crush Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The UseCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kubernetes N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N Nodes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evelyn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monitoring (DaemonSet - Prometheus Server)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prometheus Node Exporter - DaemonSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kubernetes.io/docs/concepts/workloads/controllers/daemonset/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disk Scaling/PV Scaling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rebooting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kubernetes Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add a Node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove a Disk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replica works?</t>
+    <t>???</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,8 +372,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +403,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -349,12 +498,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -387,6 +549,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -689,26 +870,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D21:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="61.375" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.25" customWidth="1"/>
+    <col min="7" max="7" width="58.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -717,338 +899,418 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="6"/>
+      <c r="G7" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="C14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
+  <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="A5:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F9" r:id="rId2"/>
-    <hyperlink ref="F10" r:id="rId3"/>
-    <hyperlink ref="F13" r:id="rId4"/>
+    <hyperlink ref="F10" r:id="rId1" display="http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/"/>
+    <hyperlink ref="F11" r:id="rId2"/>
+    <hyperlink ref="F14" r:id="rId3"/>
+    <hyperlink ref="F12" r:id="rId4"/>
+    <hyperlink ref="G14" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1067,12 +1329,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="55.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/task/Tasks.xlsx
+++ b/task/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Which Disk Fails?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,10 +151,6 @@
   </si>
   <si>
     <t>Kubernetes Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -268,27 +260,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Disk Scaling/PV Scaling - Add OSD ((4T)4OSDs (2T)2Replicas)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kubernetes Resources (will monitor the added Node?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Prometheus Node Exporter - DaemonSet (will monitor the added Node?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add Node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kubernetes Reources Rebalancing?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ceph OSD Rebalancing?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,11 +304,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FluentBit/FluentD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forum.proxmox.com/threads/change-num-replicas-on-ceph-rool-online.25904/</t>
+  </si>
+  <si>
+    <t>PV Scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replica Scaling ((4T)4OSDs (2T)2Replicas)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. kubectl edit pvc &lt;pvc&gt;
+2. kubectl delete pod &lt;pod&gt;
+3. Check RBD/PV/PVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kubernetes.io/blog/2018/07/12/resizing-persistent-volumes-using-kubernetes/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -549,6 +562,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -568,6 +584,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -872,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -881,7 +903,7 @@
     <col min="1" max="3" width="34.875" customWidth="1"/>
     <col min="4" max="4" width="61.375" customWidth="1"/>
     <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.25" customWidth="1"/>
+    <col min="6" max="6" width="69.375" customWidth="1"/>
     <col min="7" max="7" width="58.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -905,18 +927,18 @@
         <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -943,7 +965,7 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -957,245 +979,249 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="F6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="13"/>
+      <c r="D7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
+      <c r="C9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="G13" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11" t="s">
+      <c r="G16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>37</v>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1213,25 +1239,23 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1241,7 +1265,9 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1282,31 +1308,29 @@
       <c r="G28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="14">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C6:C8"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="A5:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" display="http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/"/>
-    <hyperlink ref="F11" r:id="rId2"/>
-    <hyperlink ref="F14" r:id="rId3"/>
-    <hyperlink ref="F12" r:id="rId4"/>
-    <hyperlink ref="G14" r:id="rId5"/>
+    <hyperlink ref="F12" r:id="rId1" display="http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/"/>
+    <hyperlink ref="F13" r:id="rId2"/>
+    <hyperlink ref="F16" r:id="rId3"/>
+    <hyperlink ref="F14" r:id="rId4"/>
+    <hyperlink ref="G16" r:id="rId5"/>
     <hyperlink ref="F6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1345,7 +1369,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1362,7 +1386,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1375,26 +1399,26 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>

--- a/task/Tasks.xlsx
+++ b/task/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Memory/CPU Scaling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Terry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Replace a Node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The same as copy??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(4T)4OSDs (2T)2Replicas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Solution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Evelyn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prometheus Node Exporter - DaemonSet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +119,6 @@
   </si>
   <si>
     <t>Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -272,12 +248,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rebalance Resources(PG)?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. ceph osd tree
 2. ceph pg dump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forum.proxmox.com/threads/change-num-replicas-on-ceph-rool-online.25904/</t>
+  </si>
+  <si>
+    <t>PV Scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replica Scaling ((4T)4OSDs (2T)2Replicas)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. kubectl edit pvc &lt;pvc&gt;
+2. kubectl delete pod &lt;pod&gt;
+3. Check RBD/PV/PVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kubernetes.io/blog/2018/07/12/resizing-persistent-volumes-using-kubernetes/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Influx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fluent-bit/Fluentd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kibana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebalance Resources (PG)?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace a Node/Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceph prefers uniform hardware across pools. If you are adding drives of dissimilar size, you can adjust their weights. However, for best performance, consider a CRUSH hierarchy with drives of the same type/size.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -287,7 +332,7 @@
 3. Use CRUSH reweight instead, don't use OSD reweight(temporary solution,  When an OSD
 gets marked out, the osd weight will be set to 0. When it gets marked in
 again, the weight will be changed to 1..)
-4. </t>
+</t>
     </r>
     <r>
       <rPr>
@@ -299,53 +344,13 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Same disk with same weight</t>
+      <t>4. The same disk with the same weight</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FluentBit/FluentD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://forum.proxmox.com/threads/change-num-replicas-on-ceph-rool-online.25904/</t>
-  </si>
-  <si>
-    <t>PV Scaling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replica Scaling ((4T)4OSDs (2T)2Replicas)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. kubectl edit pvc &lt;pvc&gt;
-2. kubectl delete pod &lt;pod&gt;
-3. Check RBD/PV/PVC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kubernetes.io/blog/2018/07/12/resizing-persistent-volumes-using-kubernetes/</t>
+    <t>1. Hot Swap?
+2. (4T)4OSDs (2T)2Replicas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -554,6 +559,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -582,6 +593,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -589,6 +603,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -892,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -903,16 +920,17 @@
     <col min="1" max="3" width="34.875" customWidth="1"/>
     <col min="4" max="4" width="61.375" customWidth="1"/>
     <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.375" customWidth="1"/>
-    <col min="7" max="7" width="58.75" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="69.375" customWidth="1"/>
+    <col min="8" max="9" width="58.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -921,394 +939,444 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="11" t="s">
-        <v>12</v>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="22" t="s">
-        <v>65</v>
+      <c r="C7" s="15"/>
+      <c r="D7" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="15" t="s">
-        <v>54</v>
+      <c r="C8" s="14"/>
+      <c r="D8" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>35</v>
+      <c r="C9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>47</v>
+      <c r="C15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>24</v>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11" t="s">
-        <v>12</v>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>24</v>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C19"/>
@@ -1316,22 +1384,20 @@
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="A5:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" display="http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/"/>
-    <hyperlink ref="F13" r:id="rId2"/>
-    <hyperlink ref="F16" r:id="rId3"/>
-    <hyperlink ref="F14" r:id="rId4"/>
-    <hyperlink ref="G16" r:id="rId5"/>
-    <hyperlink ref="F6" r:id="rId6"/>
+    <hyperlink ref="G12" r:id="rId1" display="http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/"/>
+    <hyperlink ref="G13" r:id="rId2"/>
+    <hyperlink ref="G16" r:id="rId3"/>
+    <hyperlink ref="G14" r:id="rId4"/>
+    <hyperlink ref="H16" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -1369,7 +1435,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1378,47 +1444,47 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>

--- a/task/Tasks.xlsx
+++ b/task/Tasks.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Task" sheetId="2" r:id="rId2"/>
     <sheet name="Consoulting" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,93 @@
   </si>
   <si>
     <t>Kubernetes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes Resources (will monitor the added Node?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus Node Exporter - DaemonSet (will monitor the added Node?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebalance Resources?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ceph osd tree
+2. ceph pg dump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forum.proxmox.com/threads/change-num-replicas-on-ceph-rool-online.25904/</t>
+  </si>
+  <si>
+    <t>PV Scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replica Scaling ((4T)4OSDs (2T)2Replicas)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. kubectl edit pvc &lt;pvc&gt;
+2. kubectl delete pod &lt;pod&gt;
+3. Check RBD/PV/PVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kubernetes.io/blog/2018/07/12/resizing-persistent-volumes-using-kubernetes/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Influx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fluent-bit/Fluentd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebalance Resources (PG)?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace a Node/Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceph prefers uniform hardware across pools. If you are adding drives of dissimilar size, you can adjust their weights. However, for best performance, consider a CRUSH hierarchy with drives of the same type/size.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Hot Swap?
+2. (4T)4OSDs (2T)2Replicas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -202,10 +289,9 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
         <charset val="136"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1. Crush Map (root-2 hosts-4 osds)</t>
     </r>
@@ -213,9 +299,9 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="微軟正黑體"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -225,104 +311,13 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
         <charset val="136"/>
-        <scheme val="minor"/>
       </rPr>
       <t>2. apt insatll ceph-deploy
 3. ceph-crush-location???</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kubernetes Resources (will monitor the added Node?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prometheus Node Exporter - DaemonSet (will monitor the added Node?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rebalance Resources?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. ceph osd tree
-2. ceph pg dump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://forum.proxmox.com/threads/change-num-replicas-on-ceph-rool-online.25904/</t>
-  </si>
-  <si>
-    <t>PV Scaling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replica Scaling ((4T)4OSDs (2T)2Replicas)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. kubectl edit pvc &lt;pvc&gt;
-2. kubectl delete pod &lt;pod&gt;
-3. Check RBD/PV/PVC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kubernetes.io/blog/2018/07/12/resizing-persistent-volumes-using-kubernetes/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElasticSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Influx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fluent-bit/Fluentd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kibana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rebalance Resources (PG)?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replace a Node/Disk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ceph prefers uniform hardware across pools. If you are adding drives of dissimilar size, you can adjust their weights. However, for best performance, consider a CRUSH hierarchy with drives of the same type/size.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -339,18 +334,28 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
         <charset val="136"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>4. The same disk with the same weight</t>
+      <t>4. Same disk with same weight</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Hot Swap?
-2. (4T)4OSDs (2T)2Replicas</t>
+    <t>Kibana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning: Do not let your cluster reach its full ratio when removing an OSD. Removing OSDs could cause the cluster to reach or exceed its full ratio.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Worker/Multi-Portal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,20 +397,34 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -534,79 +553,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -909,466 +929,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="61.375" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="4" max="4" width="71.375" customWidth="1"/>
     <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" customWidth="1"/>
     <col min="7" max="7" width="69.375" customWidth="1"/>
-    <col min="8" max="9" width="58.75" customWidth="1"/>
+    <col min="8" max="8" width="76.75" customWidth="1"/>
+    <col min="9" max="9" width="58.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="D12" s="21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="E12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="13" t="s">
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="1" t="s">
+      <c r="D18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="26" t="s">
+      <c r="D22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="D28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1396,11 +1447,10 @@
     <hyperlink ref="G13" r:id="rId2"/>
     <hyperlink ref="G16" r:id="rId3"/>
     <hyperlink ref="G14" r:id="rId4"/>
-    <hyperlink ref="H16" r:id="rId5"/>
-    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="G6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/task/Tasks.xlsx
+++ b/task/Tasks.xlsx
@@ -427,7 +427,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,12 +437,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +589,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -627,6 +620,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -931,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1095,10 +1089,10 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="7"/>
@@ -1144,69 +1138,69 @@
     <row r="12" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="26" t="s">
+      <c r="H12" s="22"/>
+      <c r="I12" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="23"/>
+      <c r="G13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="26"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="13" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1335,7 @@
       <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="6" t="s">
         <v>49</v>
       </c>
@@ -1356,7 +1350,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="8"/>
       <c r="D25" s="7" t="s">
         <v>56</v>
@@ -1369,7 +1363,7 @@
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
         <v>67</v>
@@ -1394,11 +1388,11 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1411,15 +1405,15 @@
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/task/Tasks.xlsx
+++ b/task/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Terry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Rebooting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,13 +187,6 @@
   </si>
   <si>
     <t>NFS with Ceph??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. ceph osd tree - check down osd / host name
-2.1 ceph-volume lvm list - check osd mapping to /dev/sdx
-2.2 ceph-deploy osd list &lt;hostname&gt;- check osd mapping to /dev/sdx
-3. locate the disk with /dev/sdx to replace it</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,7 +211,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Jim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -356,6 +361,21 @@
   </si>
   <si>
     <t>Multi-Worker/Multi-Portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ceph osd tree - check down osd / host name
+2.1 /usr/sbin/ceph-volume lvm list - check osd mapping to /dev/sdx
+2.2 ceph-deploy osd list &lt;hostname&gt;- check osd mapping to /dev/sdx
+3. locate the disk with /dev/sdx to replace it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How much extended memory?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How much available memory?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,11 +567,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -923,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -943,505 +969,545 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="D30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G12" r:id="rId1" display="http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/"/>
-    <hyperlink ref="G13" r:id="rId2"/>
-    <hyperlink ref="G16" r:id="rId3"/>
-    <hyperlink ref="G14" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G14" r:id="rId1" display="http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/"/>
+    <hyperlink ref="G15" r:id="rId2"/>
+    <hyperlink ref="G18" r:id="rId3"/>
+    <hyperlink ref="G16" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -1479,7 +1545,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1496,7 +1562,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1509,13 +1575,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>

--- a/task/Tasks.xlsx
+++ b/task/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,14 @@
   </si>
   <si>
     <t>How much available memory?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Storage Class??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,13 +575,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -660,6 +671,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>148404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100853" y="14130619"/>
+          <a:ext cx="5681382" cy="2815403"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -949,17 +1009,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.875" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
     <col min="4" max="4" width="71.375" customWidth="1"/>
     <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" customWidth="1"/>
@@ -969,548 +1029,565 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="15" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="15" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="19"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="17" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="32" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="21" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="27" t="s">
+      <c r="H14" s="25"/>
+      <c r="I14" s="28" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26" t="s">
+      <c r="F15" s="26"/>
+      <c r="G15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="27"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15" t="s">
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="E18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="13" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9" t="s">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="8" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
+  <mergeCells count="18">
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="I7:I10"/>
-    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A6:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1" display="http://docs.ceph.com/docs/mimic/rados/operations/add-or-rm-osds/"/>
     <hyperlink ref="G15" r:id="rId2"/>
-    <hyperlink ref="G18" r:id="rId3"/>
+    <hyperlink ref="G19" r:id="rId3"/>
     <hyperlink ref="G16" r:id="rId4"/>
     <hyperlink ref="G7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/task/Tasks.xlsx
+++ b/task/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
   </si>
   <si>
     <t>Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,15 +207,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -384,6 +372,10 @@
   </si>
   <si>
     <t>New Storage Class??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loki</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -584,6 +576,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -679,13 +674,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>148404</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1009,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1029,539 +1024,544 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="D14" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
+      <c r="E14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="D18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="C27:C30"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C27:C31"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="B2:B18"/>
     <mergeCell ref="C17:C18"/>
@@ -1622,7 +1622,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>

--- a/task/Tasks.xlsx
+++ b/task/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -631,9 +631,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1006,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1200,10 +1197,10 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="11"/>
@@ -1263,7 +1260,7 @@
         <v>35</v>
       </c>
       <c r="H14" s="26"/>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="28" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1279,14 +1276,16 @@
       <c r="E15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28" t="s">
+      <c r="F15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="29"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
@@ -1325,7 +1324,7 @@
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="17" t="s">
@@ -1353,7 +1352,9 @@
       <c r="E19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="G19" s="15" t="s">
         <v>23</v>
       </c>
@@ -1367,8 +1368,12 @@
       <c r="D20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="E20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -1463,7 +1468,7 @@
       <c r="A27" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="10" t="s">
         <v>48</v>
       </c>
@@ -1478,7 +1483,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="31"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="6"/>
       <c r="D28" s="11" t="s">
         <v>56</v>
@@ -1491,7 +1496,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="31"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="6"/>
       <c r="D29" s="11" t="s">
         <v>55</v>
@@ -1504,7 +1509,7 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="31"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="6"/>
       <c r="D30" s="11" t="s">
         <v>66</v>
@@ -1529,11 +1534,11 @@
       <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="11"/>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -1546,15 +1551,15 @@
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
